--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_errors_first_eval_ifoCASTset_naive_qoq.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_errors_first_eval_ifoCASTset_naive_qoq.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.3332190829615296</v>
+        <v>-0.8011660996346401</v>
       </c>
       <c r="C2">
-        <v>-0.8011660996346401</v>
+        <v>0.5787938608431268</v>
       </c>
       <c r="D2">
-        <v>0.5787938608431268</v>
+        <v>0.1949980559329599</v>
       </c>
       <c r="E2">
-        <v>0.1949980559329599</v>
+        <v>0.8798839467072684</v>
       </c>
       <c r="F2">
-        <v>0.8798839467072684</v>
+        <v>0.1878585623255973</v>
       </c>
       <c r="G2">
-        <v>0.1878585623255973</v>
+        <v>0.4273069063282261</v>
       </c>
       <c r="H2">
-        <v>0.4273069063282261</v>
+        <v>0.4640348830873968</v>
       </c>
       <c r="I2">
-        <v>0.4640348830873968</v>
+        <v>1.290528957474712</v>
       </c>
       <c r="J2">
-        <v>1.290528957474712</v>
+        <v>0.6347307473531471</v>
       </c>
       <c r="K2">
-        <v>0.6347307473531471</v>
+        <v>-0.02341949237247376</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.379959960477767</v>
+        <v>0.9961641555676001</v>
       </c>
       <c r="C3">
-        <v>0.9961641555676001</v>
+        <v>1.681050046341908</v>
       </c>
       <c r="D3">
-        <v>1.681050046341908</v>
+        <v>0.9890246619602374</v>
       </c>
       <c r="E3">
-        <v>0.9890246619602374</v>
+        <v>1.228473005962866</v>
       </c>
       <c r="F3">
-        <v>1.228473005962866</v>
+        <v>1.265200982722037</v>
       </c>
       <c r="G3">
-        <v>1.265200982722037</v>
+        <v>2.091695057109352</v>
       </c>
       <c r="H3">
-        <v>2.091695057109352</v>
+        <v>1.435896846987787</v>
       </c>
       <c r="I3">
-        <v>1.435896846987787</v>
+        <v>0.7777466072621664</v>
       </c>
       <c r="J3">
-        <v>0.7777466072621664</v>
+        <v>1.176861555113949</v>
       </c>
       <c r="K3">
-        <v>1.176861555113949</v>
+        <v>1.115425012992372</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.6848858907743085</v>
+        <v>-0.007139493607362657</v>
       </c>
       <c r="C4">
-        <v>-0.007139493607362657</v>
+        <v>0.2323088503952662</v>
       </c>
       <c r="D4">
-        <v>0.2323088503952662</v>
+        <v>0.2690368271544369</v>
       </c>
       <c r="E4">
-        <v>0.2690368271544369</v>
+        <v>1.095530901541752</v>
       </c>
       <c r="F4">
-        <v>1.095530901541752</v>
+        <v>0.4397326914201872</v>
       </c>
       <c r="G4">
-        <v>0.4397326914201872</v>
+        <v>-0.2184175483054337</v>
       </c>
       <c r="H4">
-        <v>-0.2184175483054337</v>
+        <v>0.1806973995463494</v>
       </c>
       <c r="I4">
-        <v>0.1806973995463494</v>
+        <v>0.119260857424772</v>
       </c>
       <c r="J4">
-        <v>0.119260857424772</v>
+        <v>-0.3149050776923316</v>
       </c>
       <c r="K4">
-        <v>-0.3149050776923316</v>
+        <v>0.6638963143867453</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.2394483440026288</v>
+        <v>0.2761763207617995</v>
       </c>
       <c r="C5">
-        <v>0.2761763207617995</v>
+        <v>1.102670395149115</v>
       </c>
       <c r="D5">
-        <v>1.102670395149115</v>
+        <v>0.4468721850275498</v>
       </c>
       <c r="E5">
-        <v>0.4468721850275498</v>
+        <v>-0.211278054698071</v>
       </c>
       <c r="F5">
-        <v>-0.211278054698071</v>
+        <v>0.187836893153712</v>
       </c>
       <c r="G5">
-        <v>0.187836893153712</v>
+        <v>0.1264003510321347</v>
       </c>
       <c r="H5">
-        <v>0.1264003510321347</v>
+        <v>-0.3077655840849689</v>
       </c>
       <c r="I5">
-        <v>-0.3077655840849689</v>
+        <v>0.671035807994108</v>
       </c>
       <c r="J5">
-        <v>0.671035807994108</v>
+        <v>0.4439199035461818</v>
       </c>
       <c r="K5">
-        <v>0.4439199035461818</v>
+        <v>-0.1895398258799067</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.8264940743873155</v>
+        <v>0.1706958642657503</v>
       </c>
       <c r="C6">
-        <v>0.1706958642657503</v>
+        <v>-0.4874543754598706</v>
       </c>
       <c r="D6">
-        <v>-0.4874543754598706</v>
+        <v>-0.0883394276080875</v>
       </c>
       <c r="E6">
-        <v>-0.0883394276080875</v>
+        <v>-0.1497759697296649</v>
       </c>
       <c r="F6">
-        <v>-0.1497759697296649</v>
+        <v>-0.5839419048467684</v>
       </c>
       <c r="G6">
-        <v>-0.5839419048467684</v>
+        <v>0.3948594872323085</v>
       </c>
       <c r="H6">
-        <v>0.3948594872323085</v>
+        <v>0.1677435827843823</v>
       </c>
       <c r="I6">
-        <v>0.1677435827843823</v>
+        <v>-0.4657161466417062</v>
       </c>
       <c r="J6">
-        <v>-0.4657161466417062</v>
+        <v>-0.0383191879861019</v>
       </c>
       <c r="K6">
-        <v>-0.0383191879861019</v>
+        <v>-0.2046561426742488</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.6581502397256208</v>
+        <v>-0.2590352918738378</v>
       </c>
       <c r="C7">
-        <v>-0.2590352918738378</v>
+        <v>-0.3204718339954152</v>
       </c>
       <c r="D7">
-        <v>-0.3204718339954152</v>
+        <v>-0.7546377691125187</v>
       </c>
       <c r="E7">
-        <v>-0.7546377691125187</v>
+        <v>0.2241636229665582</v>
       </c>
       <c r="F7">
-        <v>0.2241636229665582</v>
+        <v>-0.00295228148136796</v>
       </c>
       <c r="G7">
-        <v>-0.00295228148136796</v>
+        <v>-0.6364120109074565</v>
       </c>
       <c r="H7">
-        <v>-0.6364120109074565</v>
+        <v>-0.2090150522518522</v>
       </c>
       <c r="I7">
-        <v>-0.2090150522518522</v>
+        <v>-0.3753520069399991</v>
       </c>
       <c r="J7">
-        <v>-0.3753520069399991</v>
+        <v>-0.2526409904991733</v>
       </c>
       <c r="K7">
-        <v>-0.2526409904991733</v>
+        <v>-0.205407253944033</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.0614365421215774</v>
+        <v>-0.4956024772386809</v>
       </c>
       <c r="C8">
-        <v>-0.4956024772386809</v>
+        <v>0.483198914840396</v>
       </c>
       <c r="D8">
-        <v>0.483198914840396</v>
+        <v>0.2560830103924698</v>
       </c>
       <c r="E8">
-        <v>0.2560830103924698</v>
+        <v>-0.3773767190336187</v>
       </c>
       <c r="F8">
-        <v>-0.3773767190336187</v>
+        <v>0.0500202396219856</v>
       </c>
       <c r="G8">
-        <v>0.0500202396219856</v>
+        <v>-0.1163167150661613</v>
       </c>
       <c r="H8">
-        <v>-0.1163167150661613</v>
+        <v>0.006394301374664513</v>
       </c>
       <c r="I8">
-        <v>0.006394301374664513</v>
+        <v>0.05362803792980481</v>
       </c>
       <c r="J8">
-        <v>0.05362803792980481</v>
+        <v>-0.3429906935926468</v>
       </c>
       <c r="K8">
-        <v>-0.3429906935926468</v>
+        <v>-0.08893865846892673</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.9788013920790769</v>
+        <v>0.7516854876311507</v>
       </c>
       <c r="C9">
-        <v>0.7516854876311507</v>
+        <v>0.1182257582050622</v>
       </c>
       <c r="D9">
-        <v>0.1182257582050622</v>
+        <v>0.5456227168606665</v>
       </c>
       <c r="E9">
-        <v>0.5456227168606665</v>
+        <v>0.3792857621725196</v>
       </c>
       <c r="F9">
-        <v>0.3792857621725196</v>
+        <v>0.5019967786133455</v>
       </c>
       <c r="G9">
-        <v>0.5019967786133455</v>
+        <v>0.5492305151684858</v>
       </c>
       <c r="H9">
-        <v>0.5492305151684858</v>
+        <v>0.1526117836460341</v>
       </c>
       <c r="I9">
-        <v>0.1526117836460341</v>
+        <v>0.4066638187697542</v>
       </c>
       <c r="J9">
-        <v>0.4066638187697542</v>
+        <v>0.6267882086433268</v>
       </c>
       <c r="K9">
-        <v>0.6267882086433268</v>
+        <v>0.3909997600566587</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.6334597294260885</v>
+        <v>-0.2060627707704842</v>
       </c>
       <c r="C10">
-        <v>-0.2060627707704842</v>
+        <v>-0.3723997254586311</v>
       </c>
       <c r="D10">
-        <v>-0.3723997254586311</v>
+        <v>-0.2496887090178053</v>
       </c>
       <c r="E10">
-        <v>-0.2496887090178053</v>
+        <v>-0.202454972462665</v>
       </c>
       <c r="F10">
-        <v>-0.202454972462665</v>
+        <v>-0.5990737039851166</v>
       </c>
       <c r="G10">
-        <v>-0.5990737039851166</v>
+        <v>-0.3450216688613965</v>
       </c>
       <c r="H10">
-        <v>-0.3450216688613965</v>
+        <v>-0.1248972789878239</v>
       </c>
       <c r="I10">
-        <v>-0.1248972789878239</v>
+        <v>-0.3606857275744921</v>
       </c>
       <c r="J10">
-        <v>-0.3606857275744921</v>
+        <v>-0.5396584850452768</v>
       </c>
       <c r="K10">
-        <v>-0.5396584850452768</v>
+        <v>-0.5502190153045978</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.1663369546881469</v>
+        <v>-0.04362593824732108</v>
       </c>
       <c r="C11">
-        <v>-0.04362593824732108</v>
+        <v>0.00360779830781921</v>
       </c>
       <c r="D11">
-        <v>0.00360779830781921</v>
+        <v>-0.3930109332146324</v>
       </c>
       <c r="E11">
-        <v>-0.3930109332146324</v>
+        <v>-0.1389588980909123</v>
       </c>
       <c r="F11">
-        <v>-0.1389588980909123</v>
+        <v>0.0811654917826603</v>
       </c>
       <c r="G11">
-        <v>0.0811654917826603</v>
+        <v>-0.1546229568040079</v>
       </c>
       <c r="H11">
-        <v>-0.1546229568040079</v>
+        <v>-0.3335957142747926</v>
       </c>
       <c r="I11">
-        <v>-0.3335957142747926</v>
+        <v>-0.3441562445341136</v>
       </c>
       <c r="J11">
-        <v>-0.3441562445341136</v>
+        <v>-0.5518753546922437</v>
       </c>
       <c r="K11">
-        <v>-0.5518753546922437</v>
+        <v>-0.334666455217339</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.04723373655514029</v>
+        <v>-0.3493849949673113</v>
       </c>
       <c r="C12">
-        <v>-0.3493849949673113</v>
+        <v>-0.09533295984359125</v>
       </c>
       <c r="D12">
-        <v>-0.09533295984359125</v>
+        <v>0.1247914300299814</v>
       </c>
       <c r="E12">
-        <v>0.1247914300299814</v>
+        <v>-0.1109970185566868</v>
       </c>
       <c r="F12">
-        <v>-0.1109970185566868</v>
+        <v>-0.2899697760274715</v>
       </c>
       <c r="G12">
-        <v>-0.2899697760274715</v>
+        <v>-0.3005303062867926</v>
       </c>
       <c r="H12">
-        <v>-0.3005303062867926</v>
+        <v>-0.5082494164449226</v>
       </c>
       <c r="I12">
-        <v>-0.5082494164449226</v>
+        <v>-0.2910405169700179</v>
       </c>
       <c r="J12">
-        <v>-0.2910405169700179</v>
+        <v>0.0186456522880436</v>
       </c>
       <c r="K12">
-        <v>0.0186456522880436</v>
+        <v>-0.1356584815439604</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.2540520351237201</v>
+        <v>0.4741764249972927</v>
       </c>
       <c r="C13">
-        <v>0.4741764249972927</v>
+        <v>0.2383879764106245</v>
       </c>
       <c r="D13">
-        <v>0.2383879764106245</v>
+        <v>0.05941521893983981</v>
       </c>
       <c r="E13">
-        <v>0.05941521893983981</v>
+        <v>0.04885468868051879</v>
       </c>
       <c r="F13">
-        <v>0.04885468868051879</v>
+        <v>-0.1588644214776113</v>
       </c>
       <c r="G13">
-        <v>-0.1588644214776113</v>
+        <v>0.05834447799729348</v>
       </c>
       <c r="H13">
-        <v>0.05834447799729348</v>
+        <v>0.3680306472553549</v>
       </c>
       <c r="I13">
-        <v>0.3680306472553549</v>
+        <v>0.2137265134233509</v>
       </c>
       <c r="J13">
-        <v>0.2137265134233509</v>
+        <v>0.8641529346425341</v>
       </c>
       <c r="K13">
-        <v>0.8641529346425341</v>
+        <v>0.647987886024325</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.2357884485866682</v>
+        <v>-0.4147612060574529</v>
       </c>
       <c r="C14">
-        <v>-0.4147612060574529</v>
+        <v>-0.4253217363167739</v>
       </c>
       <c r="D14">
-        <v>-0.4253217363167739</v>
+        <v>-0.633040846474904</v>
       </c>
       <c r="E14">
-        <v>-0.633040846474904</v>
+        <v>-0.4158319469999993</v>
       </c>
       <c r="F14">
-        <v>-0.4158319469999993</v>
+        <v>-0.1061457777419378</v>
       </c>
       <c r="G14">
-        <v>-0.1061457777419378</v>
+        <v>-0.2604499115739418</v>
       </c>
       <c r="H14">
-        <v>-0.2604499115739418</v>
+        <v>0.3899765096452414</v>
       </c>
       <c r="I14">
-        <v>0.3899765096452414</v>
+        <v>0.1738114610270322</v>
       </c>
       <c r="J14">
-        <v>0.1738114610270322</v>
+        <v>-0.2332176680079241</v>
       </c>
       <c r="K14">
-        <v>-0.2332176680079241</v>
+        <v>0.2658245491694957</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,34 +968,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.01056053025932102</v>
+        <v>-0.2182796404174511</v>
       </c>
       <c r="C15">
-        <v>-0.2182796404174511</v>
+        <v>-0.001070740942546333</v>
       </c>
       <c r="D15">
-        <v>-0.001070740942546333</v>
+        <v>0.3086154283155151</v>
       </c>
       <c r="E15">
-        <v>0.3086154283155151</v>
+        <v>0.1543112944835111</v>
       </c>
       <c r="F15">
-        <v>0.1543112944835111</v>
+        <v>0.8047377157026943</v>
       </c>
       <c r="G15">
-        <v>0.8047377157026943</v>
+        <v>0.5885726670844852</v>
       </c>
       <c r="H15">
-        <v>0.5885726670844852</v>
+        <v>0.1815435380495288</v>
       </c>
       <c r="I15">
-        <v>0.1815435380495288</v>
+        <v>0.6805857552269486</v>
       </c>
       <c r="J15">
-        <v>0.6805857552269486</v>
+        <v>0.5217368420714361</v>
       </c>
       <c r="K15">
-        <v>0.5217368420714361</v>
+        <v>0.5779006630416801</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1003,179 +1003,314 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.2172088994749047</v>
+        <v>0.5268950687329662</v>
       </c>
       <c r="C16">
-        <v>0.5268950687329662</v>
+        <v>0.3725909349009622</v>
       </c>
       <c r="D16">
-        <v>0.3725909349009622</v>
+        <v>1.023017356120145</v>
       </c>
       <c r="E16">
-        <v>1.023017356120145</v>
+        <v>0.8068523075019363</v>
       </c>
       <c r="F16">
-        <v>0.8068523075019363</v>
+        <v>0.3998231784669799</v>
       </c>
       <c r="G16">
-        <v>0.3998231784669799</v>
+        <v>0.8988653956443997</v>
       </c>
       <c r="H16">
-        <v>0.8988653956443997</v>
+        <v>0.7400164824888872</v>
       </c>
       <c r="I16">
-        <v>0.7400164824888872</v>
+        <v>0.7961803034591312</v>
       </c>
       <c r="J16">
-        <v>0.7961803034591312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>3.045983143070524</v>
+      </c>
+      <c r="K16">
+        <v>10.51513347392782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.3096861692580615</v>
+        <v>0.1553820354260574</v>
       </c>
       <c r="C17">
-        <v>0.1553820354260574</v>
+        <v>0.8058084566452406</v>
       </c>
       <c r="D17">
-        <v>0.8058084566452406</v>
+        <v>0.5896434080270315</v>
       </c>
       <c r="E17">
-        <v>0.5896434080270315</v>
+        <v>0.1826142789920752</v>
       </c>
       <c r="F17">
-        <v>0.1826142789920752</v>
+        <v>0.681656496169495</v>
       </c>
       <c r="G17">
-        <v>0.681656496169495</v>
+        <v>0.5228075830139824</v>
       </c>
       <c r="H17">
-        <v>0.5228075830139824</v>
+        <v>0.5789714039842264</v>
       </c>
       <c r="I17">
-        <v>0.5789714039842264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>2.828774243595618</v>
+      </c>
+      <c r="J17">
+        <v>10.29792457445291</v>
+      </c>
+      <c r="K17">
+        <v>-7.873337225684557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-0.154304133832004</v>
+        <v>0.4961222873871792</v>
       </c>
       <c r="C18">
-        <v>0.4961222873871792</v>
+        <v>0.2799572387689701</v>
       </c>
       <c r="D18">
-        <v>0.2799572387689701</v>
+        <v>-0.1270718902659863</v>
       </c>
       <c r="E18">
-        <v>-0.1270718902659863</v>
+        <v>0.3719703269114335</v>
       </c>
       <c r="F18">
-        <v>0.3719703269114335</v>
+        <v>0.2131214137559209</v>
       </c>
       <c r="G18">
-        <v>0.2131214137559209</v>
+        <v>0.269285234726165</v>
       </c>
       <c r="H18">
-        <v>0.269285234726165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>2.519088074337557</v>
+      </c>
+      <c r="I18">
+        <v>9.988238405194851</v>
+      </c>
+      <c r="J18">
+        <v>-8.183023394942618</v>
+      </c>
+      <c r="K18">
+        <v>-0.04335184796346914</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.6504264212191833</v>
+        <v>0.4342613726009741</v>
       </c>
       <c r="C19">
-        <v>0.4342613726009741</v>
+        <v>0.02723224356601772</v>
       </c>
       <c r="D19">
-        <v>0.02723224356601772</v>
+        <v>0.5262744607434375</v>
       </c>
       <c r="E19">
-        <v>0.5262744607434375</v>
+        <v>0.3674255475879249</v>
       </c>
       <c r="F19">
-        <v>0.3674255475879249</v>
+        <v>0.423589368558169</v>
       </c>
       <c r="G19">
-        <v>0.423589368558169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>2.673392208169561</v>
+      </c>
+      <c r="H19">
+        <v>10.14254253902685</v>
+      </c>
+      <c r="I19">
+        <v>-8.028719261110615</v>
+      </c>
+      <c r="J19">
+        <v>0.1109522858685349</v>
+      </c>
+      <c r="K19">
+        <v>2.258522757667927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.2161650486182091</v>
+        <v>-0.6231941776531655</v>
       </c>
       <c r="C20">
-        <v>-0.6231941776531655</v>
+        <v>-0.1241519604757457</v>
       </c>
       <c r="D20">
-        <v>-0.1241519604757457</v>
+        <v>-0.2830008736312583</v>
       </c>
       <c r="E20">
-        <v>-0.2830008736312583</v>
+        <v>-0.2268370526610142</v>
       </c>
       <c r="F20">
-        <v>-0.2268370526610142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>2.022965786950378</v>
+      </c>
+      <c r="G20">
+        <v>9.492116117807671</v>
+      </c>
+      <c r="H20">
+        <v>-8.679145682329798</v>
+      </c>
+      <c r="I20">
+        <v>-0.5394741353506483</v>
+      </c>
+      <c r="J20">
+        <v>1.608096336448744</v>
+      </c>
+      <c r="K20">
+        <v>-1.831933650074586</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.4070291290349564</v>
+        <v>0.09201308814246346</v>
       </c>
       <c r="C21">
-        <v>0.09201308814246346</v>
+        <v>-0.06683582501304909</v>
       </c>
       <c r="D21">
-        <v>-0.06683582501304909</v>
+        <v>-0.01067200404280504</v>
       </c>
       <c r="E21">
-        <v>-0.01067200404280504</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>2.239130835568587</v>
+      </c>
+      <c r="F21">
+        <v>9.708281166425881</v>
+      </c>
+      <c r="G21">
+        <v>-8.462980633711588</v>
+      </c>
+      <c r="H21">
+        <v>-0.3233090867324392</v>
+      </c>
+      <c r="I21">
+        <v>1.824261385066953</v>
+      </c>
+      <c r="J21">
+        <v>-1.615768601456377</v>
+      </c>
+      <c r="K21">
+        <v>-1.676942779870578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.4990422171774198</v>
+        <v>0.3401933040219072</v>
       </c>
       <c r="C22">
-        <v>0.3401933040219072</v>
+        <v>0.3963571249921513</v>
       </c>
       <c r="D22">
-        <v>0.3963571249921513</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>2.646159964603544</v>
+      </c>
+      <c r="E22">
+        <v>10.11531029546084</v>
+      </c>
+      <c r="F22">
+        <v>-8.055951504676631</v>
+      </c>
+      <c r="G22">
+        <v>0.08372004230251717</v>
+      </c>
+      <c r="H22">
+        <v>2.231290514101909</v>
+      </c>
+      <c r="I22">
+        <v>-1.20873947242142</v>
+      </c>
+      <c r="J22">
+        <v>-1.269913650835621</v>
+      </c>
+      <c r="K22">
+        <v>0.7715422863206332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.1588489131555126</v>
+        <v>-0.1026850921852685</v>
       </c>
       <c r="C23">
-        <v>-0.1026850921852685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>2.147117747426124</v>
+      </c>
+      <c r="D23">
+        <v>9.616268078283417</v>
+      </c>
+      <c r="E23">
+        <v>-8.554993721854052</v>
+      </c>
+      <c r="F23">
+        <v>-0.4153221748749026</v>
+      </c>
+      <c r="G23">
+        <v>1.73224829692449</v>
+      </c>
+      <c r="H23">
+        <v>-1.70778168959884</v>
+      </c>
+      <c r="I23">
+        <v>-1.768955868013041</v>
+      </c>
+      <c r="J23">
+        <v>0.2725000691432133</v>
+      </c>
+      <c r="K23">
+        <v>-0.3100944678904277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.05616382097024405</v>
+        <v>2.305966660581636</v>
+      </c>
+      <c r="C24">
+        <v>9.77511699143893</v>
+      </c>
+      <c r="D24">
+        <v>-8.396144808698539</v>
+      </c>
+      <c r="E24">
+        <v>-0.2564732617193901</v>
+      </c>
+      <c r="F24">
+        <v>1.891097210080002</v>
+      </c>
+      <c r="G24">
+        <v>-1.548932776443328</v>
+      </c>
+      <c r="H24">
+        <v>-1.610106954857529</v>
+      </c>
+      <c r="I24">
+        <v>0.4313489822987259</v>
+      </c>
+      <c r="J24">
+        <v>-0.1512455547349151</v>
+      </c>
+      <c r="K24">
+        <v>-0.05557051392555735</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_errors_first_eval_ifoCASTset_naive_qoq.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq/AVERAGE_1_9_qoq_errors_first_eval_ifoCASTset_naive_qoq.xlsx
@@ -513,34 +513,34 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>0.3332190829615296</v>
+      </c>
+      <c r="C2">
         <v>-0.8011660996346401</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.5787938608431268</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.1949980559329599</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.8798839467072684</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1878585623255973</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.4273069063282261</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.4640348830873968</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1.290528957474712</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.6347307473531471</v>
-      </c>
-      <c r="K2">
-        <v>-0.02341949237247376</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -548,34 +548,34 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>1.379959960477767</v>
+      </c>
+      <c r="C3">
         <v>0.9961641555676001</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.681050046341908</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.9890246619602374</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1.228473005962866</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1.265200982722037</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.091695057109352</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.435896846987787</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.7777466072621664</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.176861555113949</v>
-      </c>
-      <c r="K3">
-        <v>1.115425012992372</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -583,34 +583,34 @@
         <v>12</v>
       </c>
       <c r="B4">
+        <v>0.6848858907743085</v>
+      </c>
+      <c r="C4">
         <v>-0.007139493607362657</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.2323088503952662</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.2690368271544369</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.095530901541752</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.4397326914201872</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-0.2184175483054337</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.1806973995463494</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.119260857424772</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.3149050776923316</v>
-      </c>
-      <c r="K4">
-        <v>0.6638963143867453</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,34 +618,34 @@
         <v>13</v>
       </c>
       <c r="B5">
+        <v>0.2394483440026288</v>
+      </c>
+      <c r="C5">
         <v>0.2761763207617995</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.102670395149115</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.4468721850275498</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-0.211278054698071</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.187836893153712</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.1264003510321347</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.3077655840849689</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.671035807994108</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.4439199035461818</v>
-      </c>
-      <c r="K5">
-        <v>-0.1895398258799067</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -653,34 +653,34 @@
         <v>14</v>
       </c>
       <c r="B6">
+        <v>0.8264940743873155</v>
+      </c>
+      <c r="C6">
         <v>0.1706958642657503</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-0.4874543754598706</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-0.0883394276080875</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-0.1497759697296649</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.5839419048467684</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.3948594872323085</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.1677435827843823</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.4657161466417062</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>-0.0383191879861019</v>
-      </c>
-      <c r="K6">
-        <v>-0.2046561426742488</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,34 +688,34 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>-0.6581502397256208</v>
+      </c>
+      <c r="C7">
         <v>-0.2590352918738378</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-0.3204718339954152</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-0.7546377691125187</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.2241636229665582</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-0.00295228148136796</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.6364120109074565</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.2090150522518522</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.3753520069399991</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-0.2526409904991733</v>
-      </c>
-      <c r="K7">
-        <v>-0.205407253944033</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,34 +723,34 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>-0.0614365421215774</v>
+      </c>
+      <c r="C8">
         <v>-0.4956024772386809</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.483198914840396</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.2560830103924698</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-0.3773767190336187</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.0500202396219856</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>-0.1163167150661613</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.006394301374664513</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.05362803792980481</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-0.3429906935926468</v>
-      </c>
-      <c r="K8">
-        <v>-0.08893865846892673</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,34 +758,34 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0.9788013920790769</v>
+      </c>
+      <c r="C9">
         <v>0.7516854876311507</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.1182257582050622</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.5456227168606665</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.3792857621725196</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.5019967786133455</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.5492305151684858</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.1526117836460341</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.4066638187697542</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.6267882086433268</v>
-      </c>
-      <c r="K9">
-        <v>0.3909997600566587</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,34 +793,34 @@
         <v>18</v>
       </c>
       <c r="B10">
+        <v>-0.6334597294260885</v>
+      </c>
+      <c r="C10">
         <v>-0.2060627707704842</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-0.3723997254586311</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.2496887090178053</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-0.202454972462665</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-0.5990737039851166</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-0.3450216688613965</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.1248972789878239</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.3606857275744921</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-0.5396584850452768</v>
-      </c>
-      <c r="K10">
-        <v>-0.5502190153045978</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -828,34 +828,34 @@
         <v>19</v>
       </c>
       <c r="B11">
+        <v>-0.1663369546881469</v>
+      </c>
+      <c r="C11">
         <v>-0.04362593824732108</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.00360779830781921</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-0.3930109332146324</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-0.1389588980909123</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.0811654917826603</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-0.1546229568040079</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.3335957142747926</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.3441562445341136</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-0.5518753546922437</v>
-      </c>
-      <c r="K11">
-        <v>-0.334666455217339</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -863,34 +863,34 @@
         <v>20</v>
       </c>
       <c r="B12">
+        <v>0.04723373655514029</v>
+      </c>
+      <c r="C12">
         <v>-0.3493849949673113</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-0.09533295984359125</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.1247914300299814</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-0.1109970185566868</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-0.2899697760274715</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-0.3005303062867926</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.5082494164449226</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.2910405169700179</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.0186456522880436</v>
-      </c>
-      <c r="K12">
-        <v>-0.1356584815439604</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -898,34 +898,34 @@
         <v>21</v>
       </c>
       <c r="B13">
+        <v>0.2540520351237201</v>
+      </c>
+      <c r="C13">
         <v>0.4741764249972927</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.2383879764106245</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.05941521893983981</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.04885468868051879</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-0.1588644214776113</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.05834447799729348</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.3680306472553549</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.2137265134233509</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.8641529346425341</v>
-      </c>
-      <c r="K13">
-        <v>0.647987886024325</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -933,34 +933,34 @@
         <v>22</v>
       </c>
       <c r="B14">
+        <v>-0.2357884485866682</v>
+      </c>
+      <c r="C14">
         <v>-0.4147612060574529</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-0.4253217363167739</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-0.633040846474904</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-0.4158319469999993</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-0.1061457777419378</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.2604499115739418</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.3899765096452414</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.1738114610270322</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-0.2332176680079241</v>
-      </c>
-      <c r="K14">
-        <v>0.2658245491694957</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -968,34 +968,34 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>-0.01056053025932102</v>
+      </c>
+      <c r="C15">
         <v>-0.2182796404174511</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-0.001070740942546333</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.3086154283155151</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.1543112944835111</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.8047377157026943</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.5885726670844852</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.1815435380495288</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.6805857552269486</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.5217368420714361</v>
-      </c>
-      <c r="K15">
-        <v>0.5779006630416801</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1003,34 +1003,34 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>0.2172088994749047</v>
+      </c>
+      <c r="C16">
         <v>0.5268950687329662</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.3725909349009622</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.023017356120145</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.8068523075019363</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.3998231784669799</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.8988653956443997</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>0.7400164824888872</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.7961803034591312</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>3.045983143070524</v>
-      </c>
-      <c r="K16">
-        <v>10.51513347392782</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1038,34 +1038,34 @@
         <v>25</v>
       </c>
       <c r="B17">
+        <v>0.3096861692580615</v>
+      </c>
+      <c r="C17">
         <v>0.1553820354260574</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.8058084566452406</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.5896434080270315</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.1826142789920752</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.681656496169495</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.5228075830139824</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.5789714039842264</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2.828774243595618</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>10.29792457445291</v>
-      </c>
-      <c r="K17">
-        <v>-7.873337225684557</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1073,34 +1073,34 @@
         <v>26</v>
       </c>
       <c r="B18">
+        <v>-0.154304133832004</v>
+      </c>
+      <c r="C18">
         <v>0.4961222873871792</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.2799572387689701</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-0.1270718902659863</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.3719703269114335</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.2131214137559209</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.269285234726165</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.519088074337557</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>9.988238405194851</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>-8.183023394942618</v>
-      </c>
-      <c r="K18">
-        <v>-0.04335184796346914</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1108,34 +1108,34 @@
         <v>27</v>
       </c>
       <c r="B19">
+        <v>0.6504264212191833</v>
+      </c>
+      <c r="C19">
         <v>0.4342613726009741</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.02723224356601772</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.5262744607434375</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.3674255475879249</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.423589368558169</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2.673392208169561</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>10.14254253902685</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-8.028719261110615</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.1109522858685349</v>
-      </c>
-      <c r="K19">
-        <v>2.258522757667927</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1143,34 +1143,34 @@
         <v>28</v>
       </c>
       <c r="B20">
+        <v>-0.2161650486182091</v>
+      </c>
+      <c r="C20">
         <v>-0.6231941776531655</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-0.1241519604757457</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-0.2830008736312583</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-0.2268370526610142</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>2.022965786950378</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>9.492116117807671</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-8.679145682329798</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-0.5394741353506483</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1.608096336448744</v>
-      </c>
-      <c r="K20">
-        <v>-1.831933650074586</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1178,34 +1178,34 @@
         <v>29</v>
       </c>
       <c r="B21">
+        <v>-0.4070291290349564</v>
+      </c>
+      <c r="C21">
         <v>0.09201308814246346</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-0.06683582501304909</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-0.01067200404280504</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>2.239130835568587</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>9.708281166425881</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-8.462980633711588</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-0.3233090867324392</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1.824261385066953</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-1.615768601456377</v>
-      </c>
-      <c r="K21">
-        <v>-1.676942779870578</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1213,34 +1213,34 @@
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.4990422171774198</v>
+      </c>
+      <c r="C22">
         <v>0.3401933040219072</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.3963571249921513</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2.646159964603544</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>10.11531029546084</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>-8.055951504676631</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.08372004230251717</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2.231290514101909</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-1.20873947242142</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-1.269913650835621</v>
-      </c>
-      <c r="K22">
-        <v>0.7715422863206332</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1248,34 +1248,34 @@
         <v>31</v>
       </c>
       <c r="B23">
+        <v>-0.1588489131555126</v>
+      </c>
+      <c r="C23">
         <v>-0.1026850921852685</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>2.147117747426124</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>9.616268078283417</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-8.554993721854052</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-0.4153221748749026</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.73224829692449</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-1.70778168959884</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-1.768955868013041</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.2725000691432133</v>
-      </c>
-      <c r="K23">
-        <v>-0.3100944678904277</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1283,34 +1283,34 @@
         <v>32</v>
       </c>
       <c r="B24">
+        <v>0.05616382097024405</v>
+      </c>
+      <c r="C24">
         <v>2.305966660581636</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>9.77511699143893</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-8.396144808698539</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-0.2564732617193901</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.891097210080002</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-1.548932776443328</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-1.610106954857529</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.4313489822987259</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>-0.1512455547349151</v>
-      </c>
-      <c r="K24">
-        <v>-0.05557051392555735</v>
       </c>
     </row>
   </sheetData>
